--- a/medicine/Sexualité et sexologie/Emmanuelle_4/Emmanuelle_4.xlsx
+++ b/medicine/Sexualité et sexologie/Emmanuelle_4/Emmanuelle_4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Emmanuelle 4 est un film érotique français, réalisé en 1984 par Francis Leroi, et produit par Francis Giacobetti. C'est le quatrième opus de la série des films Emmanuelle. Sylvia Kristel partage le rôle d'Emmanuelle avec Mia Nygren. Parmi les autres rôles, Fabrice Luchini y joue le rôle d'Oswaldo le magicien.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sylvia est impliquée dans une histoire d'amour tourmentée avec Marc. Elle a essayé de mettre fin à leur amour et de s'échapper, mais finit toujours par revenir avec lui. Après une rencontre lors d'une fête à Los Angeles, elle décide qu'elle en a assez - elle ira au Brésil et subira une importante chirurgie plastique. De cette façon, il ne la reconnaîtra plus jamais, encore moins la retrouvera, et cela fera un excellent article qu'elle promet de remettre à un journal californien.
 Sylvia va jusqu'au bout et devient une nouvelle femme nommée Emmanuelle ; elle est maintenant une vierge de vingt ans. Elle prévoit d'affronter tout le Brésil dans une série d'escapades sexuelles qui purgeront son passé.
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Réalisation : Francis Leroi et Iris Letans
 D'après le roman d'Emmanuelle Arsan, Emmanuelle: The Joys of a Woman
@@ -560,7 +576,7 @@
 Date de sortie :
  France : 15 février 1984
 Classification :
- France : interdit aux moins de 16 ans[1]</t>
+ France : interdit aux moins de 16 ans</t>
         </is>
       </c>
     </row>
@@ -588,7 +604,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Sylvia Kristel : Sylvia / Emmanuelle
 Mia Nygren : Emmanuelle IV
